--- a/Assets/Resources/Data/Excel/StringTable.xlsx
+++ b/Assets/Resources/Data/Excel/StringTable.xlsx
@@ -408,7 +408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Data/Excel/StringTable.xlsx
+++ b/Assets/Resources/Data/Excel/StringTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>정말로 종료할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,6 +468,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/Excel/StringTable.xlsx
+++ b/Assets/Resources/Data/Excel/StringTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -56,7 +56,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>금화가 부족합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화 5000을 소모하여 토큰 0~3개를 얻습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반슬라임의 공격력을 10증가시키고 공격속도를 5% 빠르게 해줍니다.
+(골드 10소모 최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반슬라임의 공격력을 20증가시키고 공격속도를 10% 빠르게 해줍니다.
+(골드 40소모 최대 10회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크슬라임의 공격력을 100증가시키고 공격속도를 30% 빠르게 해줍니다.
+(골드 100소모 최대 15회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반슬라임의 공격력을 250증가시키고 공격속도를 50% 빠르게 해줍니다.
+(골드 300소모 최대 20회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 라운드 x 10 골드를 소모하여 -(현재 라운드x15)-10~(현재라운드x35)+10를 얻습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="57.25" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -473,14 +504,81 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>